--- a/com.backbase.sample/Test Excel Files/NewComputerTestData.xlsx
+++ b/com.backbase.sample/Test Excel Files/NewComputerTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Introducation Date</t>
   </si>
@@ -48,13 +48,25 @@
     <t>2018-07-10</t>
   </si>
   <si>
-    <t>Solaris XYZ Computers7000</t>
-  </si>
-  <si>
-    <t>HGNew_MAC700</t>
-  </si>
-  <si>
     <t>Thinking Machines</t>
+  </si>
+  <si>
+    <t>2018-02-11</t>
+  </si>
+  <si>
+    <t>2018-05-11</t>
+  </si>
+  <si>
+    <t>HGNew MAC 800900 Series</t>
+  </si>
+  <si>
+    <t>#HGNew_MAC_Inc. Pentium Series $%</t>
+  </si>
+  <si>
+    <t>Solaris XYZ Computers Quad Series</t>
+  </si>
+  <si>
+    <t>RCA</t>
   </si>
 </sst>
 </file>
@@ -396,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="17.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="17.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="17.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
@@ -429,7 +441,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -443,7 +455,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -452,7 +464,21 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
